--- a/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10CA6B4-0DD5-4D3D-9459-808ECF9744D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E96AB-1E59-4ED4-A08B-83C6380D71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>結合試験</t>
-  </si>
-  <si>
-    <t>employeeID</t>
   </si>
   <si>
     <t>insertDate</t>
@@ -102,58 +99,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テブール</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>paymentDate</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>overTime</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>overTimePlus</t>
-  </si>
-  <si>
-    <t>shortageReduce</t>
-  </si>
-  <si>
-    <t>transportExpense</t>
-  </si>
-  <si>
-    <t>specialAddition</t>
-  </si>
-  <si>
-    <t>allowancePlus</t>
-  </si>
-  <si>
-    <t>allowanceReduce</t>
-  </si>
-  <si>
-    <t>allowanceReason</t>
-  </si>
-  <si>
-    <t>welfarePensionSelf</t>
-  </si>
-  <si>
-    <t>welfarePensionComp</t>
-  </si>
-  <si>
-    <t>welfareHealthComp</t>
-  </si>
-  <si>
-    <t>welfareHealthSelf</t>
-  </si>
-  <si>
     <t>welfareBaby</t>
   </si>
   <si>
@@ -194,10 +139,6 @@
   </si>
   <si>
     <t>deleteFlg</t>
-  </si>
-  <si>
-    <t>テストケース</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>社員機能総合試験項目仕様書</t>
@@ -313,25 +254,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>20240920</t>
-  </si>
-  <si>
     <t>20240815</t>
   </si>
   <si>
     <t>202408</t>
-  </si>
-  <si>
-    <t>E00003</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>salaryInfo</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">①自分のアカウント（e002@it-softtech.com)でEMSへログインする
@@ -565,6 +491,69 @@
   <si>
     <t>「テストデータ」シートのNo.4</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テブール</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>テストケース</t>
+  </si>
+  <si>
+    <t>claimID</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>claimMonth</t>
+  </si>
+  <si>
+    <t>workTime</t>
+  </si>
+  <si>
+    <t>exceTime</t>
+  </si>
+  <si>
+    <t>addpayOff</t>
+  </si>
+  <si>
+    <t>deficiTime</t>
+  </si>
+  <si>
+    <t>minusPayOff</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>businessTrip</t>
+  </si>
+  <si>
+    <t>taxRate</t>
+  </si>
+  <si>
+    <t>consumpTax</t>
+  </si>
+  <si>
+    <t>specialClaim</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t>No.3</t>
+  </si>
+  <si>
+    <t>CL001</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -1331,6 +1320,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,25 +1352,121 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1365,126 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1900,7 +1889,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="51" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -1958,7 +1947,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="55" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
@@ -2014,7 +2003,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="61" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
@@ -2034,7 +2023,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="44" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
@@ -2316,13 +2305,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20">
         <v>45519</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2407,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L11" sqref="L11:R11"/>
     </sheetView>
   </sheetViews>
@@ -2489,620 +2478,645 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="82"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="68" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="93"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="93"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="93"/>
+      <c r="AH4" s="93"/>
+      <c r="AI4" s="93"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="93"/>
+      <c r="AM4" s="93"/>
+      <c r="AN4" s="93"/>
+      <c r="AO4" s="93"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="93"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="94"/>
+      <c r="AW4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="79"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="81">
+      <c r="AX4" s="80"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="96">
         <v>45519</v>
       </c>
-      <c r="BA4" s="82"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="82"/>
-      <c r="BF4" s="68" t="s">
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="93"/>
+      <c r="BC4" s="93"/>
+      <c r="BD4" s="93"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="79"/>
-      <c r="BH4" s="80"/>
-      <c r="BI4" s="81" t="s">
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ4" s="93"/>
+      <c r="BK4" s="93"/>
+      <c r="BL4" s="93"/>
+      <c r="BM4" s="42"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="100"/>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="99"/>
+      <c r="BI5" s="97"/>
+      <c r="BJ5" s="100"/>
+      <c r="BK5" s="100"/>
+      <c r="BL5" s="100"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="43" customFormat="1">
+      <c r="A7" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+      <c r="AP7" s="77"/>
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77"/>
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="77"/>
+      <c r="BA7" s="77"/>
+      <c r="BB7" s="77"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF7" s="77"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="77"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK7" s="77"/>
+      <c r="BL7" s="77"/>
+      <c r="BM7" s="78"/>
+    </row>
+    <row r="8" spans="1:65" ht="64.2" customHeight="1">
+      <c r="A8" s="69">
+        <v>1</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="42"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87"/>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="87"/>
-      <c r="AR5" s="87"/>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="84"/>
-      <c r="BF5" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="86"/>
-      <c r="BI5" s="84"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="43" customFormat="1">
-      <c r="A7" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="90"/>
-      <c r="BE7" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF7" s="89"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="89"/>
-      <c r="BI7" s="90"/>
-      <c r="BJ7" s="88" t="s">
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="68"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="67"/>
+    </row>
+    <row r="9" spans="1:65" ht="64.2" customHeight="1">
+      <c r="A9" s="69">
+        <v>2</v>
+      </c>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="81"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="112"/>
+      <c r="BA9" s="112"/>
+      <c r="BB9" s="112"/>
+      <c r="BC9" s="112"/>
+      <c r="BD9" s="113"/>
+      <c r="BE9" s="66"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="68"/>
+      <c r="BK9" s="96"/>
+      <c r="BL9" s="96"/>
+      <c r="BM9" s="110"/>
+    </row>
+    <row r="10" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
+      <c r="A10" s="107">
+        <v>3</v>
+      </c>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="114"/>
+      <c r="AZ10" s="114"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="114"/>
+      <c r="BC10" s="114"/>
+      <c r="BD10" s="115"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="72"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="70"/>
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="72"/>
+    </row>
+    <row r="11" spans="1:65" ht="137.4" customHeight="1">
+      <c r="A11" s="69">
         <v>4</v>
       </c>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="90"/>
-    </row>
-    <row r="8" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A8" s="83">
-        <v>1</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="108"/>
-      <c r="AK8" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL8" s="68"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="68"/>
-      <c r="BL8" s="68"/>
-      <c r="BM8" s="69"/>
-    </row>
-    <row r="9" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A9" s="83">
-        <v>2</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="79"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="108"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="109"/>
-      <c r="BA9" s="109"/>
-      <c r="BB9" s="109"/>
-      <c r="BC9" s="109"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="79"/>
-      <c r="BG9" s="79"/>
-      <c r="BH9" s="79"/>
-      <c r="BI9" s="108"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="81"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="111"/>
-    </row>
-    <row r="10" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A10" s="78">
-        <v>3</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="70"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="71"/>
-    </row>
-    <row r="11" spans="1:65" ht="137.4" customHeight="1">
-      <c r="A11" s="83">
-        <v>4</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
-      <c r="BC11" s="72"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="69"/>
-      <c r="BJ11" s="67"/>
-      <c r="BK11" s="68"/>
-      <c r="BL11" s="68"/>
-      <c r="BM11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="74"/>
+      <c r="AK11" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="66"/>
+      <c r="BF11" s="66"/>
+      <c r="BG11" s="66"/>
+      <c r="BH11" s="66"/>
+      <c r="BI11" s="67"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="66"/>
+      <c r="BL11" s="66"/>
+      <c r="BM11" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -3116,42 +3130,17 @@
     <mergeCell ref="L8:R8"/>
     <mergeCell ref="S8:AJ8"/>
     <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="AY7:BD7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3163,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -3188,168 +3177,170 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="35" customFormat="1" ht="36">
+      <c r="A2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="35" customFormat="1" ht="54">
-      <c r="A2" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="U2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF2" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AH2" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="18">
       <c r="A3" s="41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E3" s="40">
-        <v>350000</v>
+        <v>160</v>
       </c>
       <c r="F3" s="40">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="G3" s="40">
         <v>0</v>
       </c>
       <c r="H3" s="40">
-        <v>284800</v>
+        <v>0</v>
       </c>
       <c r="I3" s="40">
         <v>0</v>
       </c>
       <c r="J3" s="40">
-        <v>0</v>
+        <v>6950</v>
       </c>
       <c r="K3" s="40">
         <v>0</v>
       </c>
       <c r="L3" s="40">
+        <v>10</v>
+      </c>
+      <c r="M3" s="40">
+        <v>160</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="40">
         <v>0</v>
       </c>
-      <c r="M3" s="40">
+      <c r="P3" s="40">
         <v>0</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="40">
-        <v>5</v>
-      </c>
-      <c r="P3" s="40">
-        <v>5</v>
-      </c>
       <c r="Q3" s="40">
-        <v>3</v>
+        <v>20240801</v>
       </c>
       <c r="R3" s="40">
-        <v>3</v>
+        <v>20240814</v>
       </c>
       <c r="S3" s="40">
         <v>18</v>
@@ -3389,13 +3380,13 @@
       </c>
       <c r="AE3" s="38"/>
       <c r="AF3" s="39" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AG3" s="39" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="AH3" s="39" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E96AB-1E59-4ED4-A08B-83C6380D71FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5565C5-164D-4DF0-9707-FF9E8C65C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -99,46 +99,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>welfareBaby</t>
-  </si>
-  <si>
-    <t>eplyInsSelf</t>
-  </si>
-  <si>
-    <t>eplyInsComp</t>
-  </si>
-  <si>
-    <t>eplyInsWithdraw</t>
-  </si>
-  <si>
-    <t>wkAcccpsIns</t>
-  </si>
-  <si>
-    <t>withholdingTax</t>
-  </si>
-  <si>
-    <t>municipalTax</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>rentalMgmtFee</t>
-  </si>
-  <si>
-    <t>specialReduce</t>
-  </si>
-  <si>
     <t>sum</t>
-  </si>
-  <si>
-    <t>totalFee</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>deleteFlg</t>
   </si>
   <si>
     <t>社員機能総合試験項目仕様書</t>
@@ -245,16 +206,6 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>salaryinfoテーブル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20240815</t>
   </si>
   <si>
     <t>202408</t>
@@ -407,56 +358,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">⑤EMSMシステムの「自動請求」リンクをクリックする
-⑥　EMSMの「自動請求」の画面にて、請求月が自動採番（最大請求月の次の月）"202408"で「状況確認」ボタンをクリック    
-⑥全員入力した場合、「請求書作成」をクリックする。
-⑦請求書作成してから、「請求書ダウンロード」をクリックする。
-</t>
-    <rPh sb="11" eb="15">
-      <t>ジドウセイキュウ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>ジドウセイキュウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>セイキュウツキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">①登録成功
 ②claimテブールに”202408”の行が新規登録。自動請求情報が「テストデータ」シートのNo.3の値と同じ
 ③請求書にデータ出力する。請求書ファイル名：202408_ソフトテク請求書.PDF
@@ -554,6 +455,60 @@
   </si>
   <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤EMSMシステムの「自動請求」リンクをクリックする
+⑥　EMSMの「自動請求」の画面にて、請求月が自動採番（最大請求月の次の月）"202408"で「状況確認」ボタンをクリック    
+⑦全員入力した場合、「請求書作成」をクリックする。
+⑧請求書作成してから、「請求書ダウンロード」をクリックする。
+</t>
+    <rPh sb="11" eb="15">
+      <t>ジドウセイキュウ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>ジドウセイキュウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>セイキュウツキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>claimテーブル</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -599,6 +554,7 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1320,38 +1276,149 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1363,117 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1889,7 +1845,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="51" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -1947,7 +1903,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="55" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
@@ -2003,7 +1959,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="61" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="62"/>
@@ -2023,7 +1979,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="44" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
@@ -2264,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702505DA-3645-4D14-86FE-2B9896603D6D}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
@@ -2305,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D4" s="20">
         <v>45519</v>
@@ -2396,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:R11"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11:AX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2478,645 +2434,620 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="105" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="68">
+        <v>45519</v>
+      </c>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="42"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="94"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="94"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="94"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="94"/>
+      <c r="AI5" s="94"/>
+      <c r="AJ5" s="94"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="94"/>
+      <c r="AM5" s="94"/>
+      <c r="AN5" s="94"/>
+      <c r="AO5" s="94"/>
+      <c r="AP5" s="94"/>
+      <c r="AQ5" s="94"/>
+      <c r="AR5" s="94"/>
+      <c r="AS5" s="94"/>
+      <c r="AT5" s="94"/>
+      <c r="AU5" s="94"/>
+      <c r="AV5" s="95"/>
+      <c r="AW5" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="94"/>
+      <c r="BK5" s="94"/>
+      <c r="BL5" s="94"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="43" customFormat="1">
+      <c r="A7" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="113" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="115"/>
+      <c r="AK7" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="114"/>
+      <c r="AM7" s="114"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="114"/>
+      <c r="AP7" s="114"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="114"/>
+      <c r="AU7" s="114"/>
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="115"/>
+      <c r="AY7" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="114"/>
+      <c r="BD7" s="115"/>
+      <c r="BE7" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="115"/>
+      <c r="BJ7" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK7" s="114"/>
+      <c r="BL7" s="114"/>
+      <c r="BM7" s="115"/>
+    </row>
+    <row r="8" spans="1:65" ht="64.2" customHeight="1">
+      <c r="A8" s="85">
+        <v>1</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="111"/>
+    </row>
+    <row r="9" spans="1:65" ht="64.2" customHeight="1">
+      <c r="A9" s="85">
+        <v>2</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="65"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-      <c r="AT4" s="93"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="96">
-        <v>45519</v>
-      </c>
-      <c r="BA4" s="93"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="93"/>
-      <c r="BD4" s="93"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ4" s="93"/>
-      <c r="BK4" s="93"/>
-      <c r="BL4" s="93"/>
-      <c r="BM4" s="42"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="100"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="100"/>
-      <c r="AU5" s="100"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="98" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="99"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="99"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="100"/>
-      <c r="BK5" s="100"/>
-      <c r="BL5" s="100"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="43" customFormat="1">
-      <c r="A7" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="76" t="s">
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="76"/>
+      <c r="BB9" s="76"/>
+      <c r="BC9" s="76"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="68"/>
+      <c r="BM9" s="69"/>
+    </row>
+    <row r="10" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
+      <c r="A10" s="84">
+        <v>3</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="78"/>
+      <c r="BA10" s="78"/>
+      <c r="BB10" s="78"/>
+      <c r="BC10" s="78"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="64"/>
+      <c r="BG10" s="64"/>
+      <c r="BH10" s="64"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="70"/>
+      <c r="BK10" s="64"/>
+      <c r="BL10" s="64"/>
+      <c r="BM10" s="71"/>
+    </row>
+    <row r="11" spans="1:65" ht="137.4" customHeight="1">
+      <c r="A11" s="85">
         <v>4</v>
       </c>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="78"/>
-    </row>
-    <row r="8" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A8" s="69">
-        <v>1</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="64"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-      <c r="BC8" s="64"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="68"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="67"/>
-    </row>
-    <row r="9" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A9" s="69">
-        <v>2</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="80"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
-      <c r="AS9" s="80"/>
-      <c r="AT9" s="80"/>
-      <c r="AU9" s="80"/>
-      <c r="AV9" s="80"/>
-      <c r="AW9" s="80"/>
-      <c r="AX9" s="81"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="112"/>
-      <c r="BA9" s="112"/>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="113"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="80"/>
-      <c r="BG9" s="80"/>
-      <c r="BH9" s="80"/>
-      <c r="BI9" s="81"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="96"/>
-      <c r="BL9" s="96"/>
-      <c r="BM9" s="110"/>
-    </row>
-    <row r="10" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A10" s="107">
-        <v>3</v>
-      </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="70"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="114"/>
-      <c r="AZ10" s="114"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="114"/>
-      <c r="BC10" s="114"/>
-      <c r="BD10" s="115"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="70"/>
-      <c r="BG10" s="70"/>
-      <c r="BH10" s="70"/>
-      <c r="BI10" s="72"/>
-      <c r="BJ10" s="111"/>
-      <c r="BK10" s="70"/>
-      <c r="BL10" s="70"/>
-      <c r="BM10" s="72"/>
-    </row>
-    <row r="11" spans="1:65" ht="137.4" customHeight="1">
-      <c r="A11" s="69">
-        <v>4</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-      <c r="AI11" s="73"/>
-      <c r="AJ11" s="74"/>
-      <c r="AK11" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="70"/>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="65"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="67"/>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="66"/>
-      <c r="BL11" s="66"/>
-      <c r="BM11" s="67"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="72"/>
+      <c r="BG11" s="72"/>
+      <c r="BH11" s="72"/>
+      <c r="BI11" s="111"/>
+      <c r="BJ11" s="67"/>
+      <c r="BK11" s="72"/>
+      <c r="BL11" s="72"/>
+      <c r="BM11" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -3133,14 +3064,39 @@
     <mergeCell ref="AY7:BD7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,11 +3106,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:R3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
   <cols>
@@ -3175,62 +3129,62 @@
     <col min="18" max="16384" width="9.59765625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:18">
       <c r="A1" s="33" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="35" customFormat="1" ht="36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="35" customFormat="1" ht="36">
       <c r="A2" s="35" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="37" t="s">
         <v>20</v>
@@ -3238,67 +3192,19 @@
       <c r="R2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="37" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="18">
+      <c r="A3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>33</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="18">
-      <c r="A3" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="40">
         <v>160</v>
@@ -3328,7 +3234,7 @@
         <v>160</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="O3" s="40">
         <v>0</v>
@@ -3341,56 +3247,11 @@
       </c>
       <c r="R3" s="40">
         <v>20240814</v>
-      </c>
-      <c r="S3" s="40">
-        <v>18</v>
-      </c>
-      <c r="T3" s="40">
-        <v>5</v>
-      </c>
-      <c r="U3" s="40">
-        <v>9</v>
-      </c>
-      <c r="V3" s="40">
-        <v>3</v>
-      </c>
-      <c r="W3" s="40">
-        <v>2</v>
-      </c>
-      <c r="X3" s="40">
-        <v>8100</v>
-      </c>
-      <c r="Y3" s="40">
-        <v>2010</v>
-      </c>
-      <c r="Z3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="40">
-        <v>624677</v>
-      </c>
-      <c r="AD3" s="40">
-        <v>624717</v>
-      </c>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH3" s="39" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_自動請求.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5565C5-164D-4DF0-9707-FF9E8C65C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031A8A9D-6052-4F5F-A4A6-08FC30A3C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="137">
   <si>
     <t>No</t>
   </si>
@@ -123,16 +123,6 @@
     <t>自動請求</t>
     <rPh sb="0" eb="4">
       <t>ジドウセイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>稼働新規登録</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>シンキトウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -211,7 +201,280 @@
     <t>202408</t>
   </si>
   <si>
-    <t xml:space="preserve">①自分のアカウント（e002@it-softtech.com)でEMSへログインする
+    <t>契約テーブルにデータを入れる</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員の自ら稼働情報登録</t>
+    <rPh sb="5" eb="7">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①登録成功
+②claimテブールに”202408”の行が新規登録。自動請求情報が「テストデータ」シートのNo.3の値と同じ
+③請求書にデータ出力する。請求書ファイル名：202408_ソフトテク請求書.PDF
+</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジドウセイキュウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contractテーブルにデータを入れました。</t>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「テストデータ」シートのNo.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>claimID</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>claimMonth</t>
+  </si>
+  <si>
+    <t>workTime</t>
+  </si>
+  <si>
+    <t>exceTime</t>
+  </si>
+  <si>
+    <t>addpayOff</t>
+  </si>
+  <si>
+    <t>deficiTime</t>
+  </si>
+  <si>
+    <t>minusPayOff</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>businessTrip</t>
+  </si>
+  <si>
+    <t>taxRate</t>
+  </si>
+  <si>
+    <t>consumpTax</t>
+  </si>
+  <si>
+    <t>specialClaim</t>
+  </si>
+  <si>
+    <t>claimStatus</t>
+  </si>
+  <si>
+    <t>claimテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>20210131</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240401</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>会社C</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>workMonth</t>
+  </si>
+  <si>
+    <t>workStartDay</t>
+  </si>
+  <si>
+    <t>workEndDay</t>
+  </si>
+  <si>
+    <t>workInfoFile</t>
+  </si>
+  <si>
+    <t>202407</t>
+  </si>
+  <si>
+    <t>20240801</t>
+  </si>
+  <si>
+    <t>20240831</t>
+  </si>
+  <si>
+    <t>20240814</t>
+  </si>
+  <si>
+    <t>202406</t>
+  </si>
+  <si>
+    <t>20230101</t>
+  </si>
+  <si>
+    <t>20230131</t>
+  </si>
+  <si>
+    <t>20240701</t>
+  </si>
+  <si>
+    <t>20240731</t>
+  </si>
+  <si>
+    <t>20240823</t>
+  </si>
+  <si>
+    <t>稼働画面開く</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>④直接テーブルに契約データを入れる</t>
+    <rPh sb="1" eb="3">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①自分のアカウント（e003@it-softtech.com)でEMSへログインする
 ②EMSシステムの「勤怠情報」をクリック
 </t>
     <rPh sb="1" eb="3">
@@ -226,47 +489,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>契約テーブルにデータを入れる</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>③直接テーブルに契約データを入れる</t>
-    <rPh sb="1" eb="3">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>社員の自ら稼働情報登録</t>
-    <rPh sb="5" eb="7">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">④EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック
+    <t xml:space="preserve">③EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック
 ・稼働月：現在の月を自動表示
 ・稼働開始日：2024/08/01
 ・稼働最終日：2024/08/31
-・稼働時間：160
+・稼働時間：190
 ・定期券あり：✔
 ・定期券開始日：2024/08/01
 ・起点駅：Nishikawaguchi
@@ -345,170 +572,180 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者が自動請求</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <t>社員が請求書作成</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤社員(E00002)がEMSMへログインする
+⑥EMSMシステムの「自動請求」リンクをクリックする
+⑦　EMSMの「自動請求」の画面にて、請求月が自動採番（最大請求月の次の月）"202408"で「状況確認」ボタンをクリック    
+⑧「請求書生成」をクリックする。
+⑨請求書生成してから、「請求書ダウンロード」をクリックする。
+</t>
+    <rPh sb="38" eb="42">
+      <t>ジドウセイキュウ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>ジドウセイキュウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>セイキュウツキ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイキュウ</t>
+    <rPh sb="79" eb="81">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">①登録成功
-②claimテブールに”202408”の行が新規登録。自動請求情報が「テストデータ」シートのNo.3の値と同じ
-③請求書にデータ出力する。請求書ファイル名：202408_ソフトテク請求書.PDF
-</t>
-    <rPh sb="1" eb="3">
+    <t>No.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>claimテーブル生成する前のデータ：</t>
+    <rPh sb="9" eb="11">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>CM00000001</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>claimテブールに”202408”の行が新規登録。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>CM00000002</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>テストケース</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workinfoテブール登録する前のデータ：</t>
+    <rPh sb="12" eb="14">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>ジドウセイキュウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>contractテーブルにデータを入れました。</t>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>workinfoテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>transportテブール登録する前のデータ：</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
     <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「テストデータ」シートのNo.4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テブール</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>テストケース</t>
-  </si>
-  <si>
-    <t>claimID</t>
-  </si>
-  <si>
-    <t>contractID</t>
-  </si>
-  <si>
-    <t>claimMonth</t>
-  </si>
-  <si>
-    <t>workTime</t>
-  </si>
-  <si>
-    <t>exceTime</t>
-  </si>
-  <si>
-    <t>addpayOff</t>
-  </si>
-  <si>
-    <t>deficiTime</t>
-  </si>
-  <si>
-    <t>minusPayOff</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>businessTrip</t>
-  </si>
-  <si>
-    <t>taxRate</t>
-  </si>
-  <si>
-    <t>consumpTax</t>
-  </si>
-  <si>
-    <t>specialClaim</t>
-  </si>
-  <si>
-    <t>claimStatus</t>
-  </si>
-  <si>
-    <t>No.3</t>
-  </si>
-  <si>
-    <t>CL001</t>
-  </si>
-  <si>
-    <t>CT002</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⑤EMSMシステムの「自動請求」リンクをクリックする
-⑥　EMSMの「自動請求」の画面にて、請求月が自動採番（最大請求月の次の月）"202408"で「状況確認」ボタンをクリック    
-⑦全員入力した場合、「請求書作成」をクリックする。
-⑧請求書作成してから、「請求書ダウンロード」をクリックする。
-</t>
-    <rPh sb="11" eb="15">
-      <t>ジドウセイキュウ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>ジドウセイキュウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>セイキュウツキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>claimテーブル</t>
-    <phoneticPr fontId="3"/>
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>startStation</t>
+  </si>
+  <si>
+    <t>endStation</t>
+  </si>
+  <si>
+    <t>transportFacility</t>
+  </si>
+  <si>
+    <t>transportExpense1</t>
+  </si>
+  <si>
+    <t>midStation1</t>
+  </si>
+  <si>
+    <t>transportFacility1</t>
+  </si>
+  <si>
+    <t>midStation2</t>
+  </si>
+  <si>
+    <t>transportFacility2</t>
+  </si>
+  <si>
+    <t>midStation3</t>
+  </si>
+  <si>
+    <t>transportFacility3</t>
+  </si>
+  <si>
+    <t>transportExpense2</t>
+  </si>
+  <si>
+    <t>transportExpense3</t>
+  </si>
+  <si>
+    <t>BusinessTripName</t>
+  </si>
+  <si>
+    <t>20230230</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>transportテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
+  </si>
+  <si>
+    <t>Nishikawaguchi</t>
+  </si>
+  <si>
+    <t>Nippori</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>なし</t>
   </si>
 </sst>
 </file>
@@ -518,7 +755,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +901,26 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klee One SemiBold"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1082,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,9 +1445,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1200,12 +1454,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1276,6 +1524,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,10 +1556,109 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,21 +1667,6 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1323,114 +1679,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1827,16 +2084,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -1844,20 +2101,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1882,58 +2139,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="51"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="57"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="54"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1958,58 +2215,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="63"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
+      <c r="G23" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2220,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702505DA-3645-4D14-86FE-2B9896603D6D}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
@@ -2261,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D4" s="20">
         <v>45519</v>
@@ -2352,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11:AX11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11:AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2434,620 +2691,645 @@
       <c r="BM1" s="29"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
       <c r="BM2" s="29"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
       <c r="BM3" s="30"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="105" t="s">
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
-      <c r="AI4" s="97"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="97"/>
-      <c r="AL4" s="97"/>
-      <c r="AM4" s="97"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="97"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="97"/>
-      <c r="AS4" s="97"/>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="72" t="s">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="96"/>
-      <c r="AZ4" s="68">
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="93">
         <v>45519</v>
       </c>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="72" t="s">
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="68" t="s">
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="42"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="39"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="88" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="94"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="94"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="94"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="94"/>
-      <c r="AI5" s="94"/>
-      <c r="AJ5" s="94"/>
-      <c r="AK5" s="94"/>
-      <c r="AL5" s="94"/>
-      <c r="AM5" s="94"/>
-      <c r="AN5" s="94"/>
-      <c r="AO5" s="94"/>
-      <c r="AP5" s="94"/>
-      <c r="AQ5" s="94"/>
-      <c r="AR5" s="94"/>
-      <c r="AS5" s="94"/>
-      <c r="AT5" s="94"/>
-      <c r="AU5" s="94"/>
-      <c r="AV5" s="95"/>
-      <c r="AW5" s="88" t="s">
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="90"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="89"/>
-      <c r="BC5" s="89"/>
-      <c r="BD5" s="89"/>
-      <c r="BE5" s="89"/>
-      <c r="BF5" s="88" t="s">
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="96"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="89"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="89"/>
-      <c r="BJ5" s="94"/>
-      <c r="BK5" s="94"/>
-      <c r="BL5" s="94"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="97"/>
+      <c r="BK5" s="97"/>
+      <c r="BL5" s="97"/>
       <c r="BM5" s="25"/>
     </row>
-    <row r="7" spans="1:65" s="43" customFormat="1">
-      <c r="A7" s="112" t="s">
+    <row r="7" spans="1:65" s="40" customFormat="1">
+      <c r="A7" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="113" t="s">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="114"/>
-      <c r="AE7" s="114"/>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="114"/>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="113" t="s">
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="114"/>
-      <c r="AM7" s="114"/>
-      <c r="AN7" s="114"/>
-      <c r="AO7" s="114"/>
-      <c r="AP7" s="114"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="114"/>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="114"/>
-      <c r="AV7" s="114"/>
-      <c r="AW7" s="114"/>
-      <c r="AX7" s="115"/>
-      <c r="AY7" s="113" t="s">
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="114"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="114"/>
-      <c r="BC7" s="114"/>
-      <c r="BD7" s="115"/>
-      <c r="BE7" s="113" t="s">
+      <c r="AZ7" s="74"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="74"/>
+      <c r="BC7" s="74"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BF7" s="114"/>
-      <c r="BG7" s="114"/>
-      <c r="BH7" s="114"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="113" t="s">
+      <c r="BF7" s="74"/>
+      <c r="BG7" s="74"/>
+      <c r="BH7" s="74"/>
+      <c r="BI7" s="75"/>
+      <c r="BJ7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="BK7" s="114"/>
-      <c r="BL7" s="114"/>
-      <c r="BM7" s="115"/>
+      <c r="BK7" s="74"/>
+      <c r="BL7" s="74"/>
+      <c r="BM7" s="75"/>
     </row>
     <row r="8" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A8" s="85">
+      <c r="A8" s="66">
         <v>1</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="64" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="70"/>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="80" t="s">
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="109"/>
+      <c r="BA8" s="109"/>
+      <c r="BB8" s="109"/>
+      <c r="BC8" s="109"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="78"/>
+      <c r="BJ8" s="65"/>
+      <c r="BK8" s="93"/>
+      <c r="BL8" s="93"/>
+      <c r="BM8" s="107"/>
+    </row>
+    <row r="9" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
+      <c r="A9" s="104">
+        <v>2</v>
+      </c>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="72" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="111"/>
-    </row>
-    <row r="9" spans="1:65" ht="64.2" customHeight="1">
-      <c r="A9" s="85">
-        <v>2</v>
-      </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="64" t="s">
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="112"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="69"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="69"/>
+    </row>
+    <row r="10" spans="1:65" ht="64.2" customHeight="1">
+      <c r="A10" s="66">
+        <v>3</v>
+      </c>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="109"/>
+      <c r="BA10" s="109"/>
+      <c r="BB10" s="109"/>
+      <c r="BC10" s="109"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="63"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="78"/>
+      <c r="BJ10" s="65"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="107"/>
+    </row>
+    <row r="11" spans="1:65" ht="137.4" customHeight="1">
+      <c r="A11" s="66">
+        <v>4</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="72"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="68"/>
-      <c r="BM9" s="69"/>
-    </row>
-    <row r="10" spans="1:65" s="34" customFormat="1" ht="229.8" customHeight="1">
-      <c r="A10" s="84">
-        <v>3</v>
-      </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="65"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="64"/>
-      <c r="AQ10" s="64"/>
-      <c r="AR10" s="64"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="64"/>
-      <c r="AU10" s="64"/>
-      <c r="AV10" s="64"/>
-      <c r="AW10" s="64"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="78"/>
-      <c r="BA10" s="78"/>
-      <c r="BB10" s="78"/>
-      <c r="BC10" s="78"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="64"/>
-      <c r="BG10" s="64"/>
-      <c r="BH10" s="64"/>
-      <c r="BI10" s="71"/>
-      <c r="BJ10" s="70"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="64"/>
-      <c r="BM10" s="71"/>
-    </row>
-    <row r="11" spans="1:65" ht="137.4" customHeight="1">
-      <c r="A11" s="85">
-        <v>4</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-      <c r="AG11" s="65"/>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="75"/>
-      <c r="AZ11" s="75"/>
-      <c r="BA11" s="75"/>
-      <c r="BB11" s="75"/>
-      <c r="BC11" s="75"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="72"/>
-      <c r="BG11" s="72"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="111"/>
-      <c r="BJ11" s="67"/>
-      <c r="BK11" s="72"/>
-      <c r="BL11" s="72"/>
-      <c r="BM11" s="111"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="67"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="67"/>
+      <c r="AW11" s="67"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="62"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="65"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="63"/>
+      <c r="BM11" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -3064,39 +3346,14 @@
     <mergeCell ref="AY7:BD7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,149 +3363,973 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" style="31"/>
-    <col min="5" max="5" width="20.19921875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.69921875" style="31" customWidth="1"/>
-    <col min="11" max="14" width="9.59765625" style="31"/>
-    <col min="15" max="15" width="10.59765625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" style="31"/>
-    <col min="17" max="17" width="16.5" style="31" customWidth="1"/>
-    <col min="18" max="16384" width="9.59765625" style="31"/>
+    <col min="1" max="1" width="9.59765625" style="35"/>
+    <col min="2" max="16384" width="9.59765625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="B1" s="115" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="115" customFormat="1" ht="36">
+      <c r="B2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="H2" s="36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="35" customFormat="1" ht="36">
-      <c r="A2" s="35" t="s">
+      <c r="I2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="N2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="P2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="37" t="s">
+      <c r="Q2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="B3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="113">
+        <v>160</v>
+      </c>
+      <c r="F3" s="113">
+        <v>15</v>
+      </c>
+      <c r="G3" s="113">
+        <v>6000</v>
+      </c>
+      <c r="H3" s="113">
+        <v>0</v>
+      </c>
+      <c r="I3" s="113">
+        <v>0</v>
+      </c>
+      <c r="J3" s="113">
+        <v>2100</v>
+      </c>
+      <c r="K3" s="113">
+        <v>1100</v>
+      </c>
+      <c r="L3" s="113">
+        <v>10</v>
+      </c>
+      <c r="M3" s="113">
+        <v>210</v>
+      </c>
+      <c r="N3" s="113">
+        <v>23000</v>
+      </c>
+      <c r="O3" s="113">
+        <v>1200</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="115" customFormat="1" ht="18"/>
+    <row r="5" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="B5" s="115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="115" customFormat="1" ht="36">
+      <c r="A6" s="116" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="B7" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="113">
+        <v>160</v>
+      </c>
+      <c r="F7" s="113">
+        <v>15</v>
+      </c>
+      <c r="G7" s="113">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="113">
+        <v>0</v>
+      </c>
+      <c r="I7" s="113">
+        <v>0</v>
+      </c>
+      <c r="J7" s="113">
+        <v>2100</v>
+      </c>
+      <c r="K7" s="113">
+        <v>1100</v>
+      </c>
+      <c r="L7" s="113">
+        <v>10</v>
+      </c>
+      <c r="M7" s="113">
+        <v>210</v>
+      </c>
+      <c r="N7" s="113">
+        <v>23000</v>
+      </c>
+      <c r="O7" s="113">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="A8" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="113">
+        <v>190</v>
+      </c>
+      <c r="F8" s="113">
+        <v>0</v>
+      </c>
+      <c r="G8" s="113">
+        <v>0</v>
+      </c>
+      <c r="H8" s="113">
+        <v>0</v>
+      </c>
+      <c r="I8" s="113">
+        <v>0</v>
+      </c>
+      <c r="J8" s="113">
+        <v>6950</v>
+      </c>
+      <c r="K8" s="113">
+        <v>0</v>
+      </c>
+      <c r="L8" s="113">
+        <v>10</v>
+      </c>
+      <c r="M8" s="113">
+        <v>25000</v>
+      </c>
+      <c r="N8" s="113">
+        <v>281950</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="115" customFormat="1" ht="18"/>
+    <row r="10" spans="1:20">
+      <c r="A10" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="117" customFormat="1" ht="36">
+      <c r="B11" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="37" t="s">
+      <c r="H11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="J11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="T11" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="18">
-      <c r="A3" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="40">
+    <row r="12" spans="1:20" s="117" customFormat="1" ht="18">
+      <c r="B12" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="113">
+        <v>250000</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="113">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="113">
+        <v>1500</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="115" customFormat="1" ht="18">
+      <c r="A16" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="18" spans="1:22" s="115" customFormat="1" ht="36">
+      <c r="B18" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B19" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="113">
         <v>160</v>
       </c>
-      <c r="F3" s="40">
+      <c r="G19" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B20" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="113">
+        <v>199</v>
+      </c>
+      <c r="G20" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="22" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="A22" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="24" spans="1:22" s="115" customFormat="1" ht="36">
+      <c r="B24" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B25" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="113">
+        <v>160</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B26" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="113">
+        <v>199</v>
+      </c>
+      <c r="G26" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B27" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="113">
+        <v>190</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="29" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="A29" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="115" customFormat="1" ht="36">
+      <c r="B30" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="U30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B31" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="113">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="O31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="R31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="S31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="T31" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="V31" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="33" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="A33" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="115" customFormat="1" ht="36">
+      <c r="B34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="U34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B35" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="113">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="P35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="R35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="S35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="T35" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U35" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="V35" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="115" customFormat="1" ht="18">
+      <c r="B36" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="113">
+        <v>6950</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="N36" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="P36" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q36" s="113">
+        <v>6950</v>
+      </c>
+      <c r="R36" s="113">
         <v>0</v>
       </c>
-      <c r="G3" s="40">
-        <v>0</v>
-      </c>
-      <c r="H3" s="40">
-        <v>0</v>
-      </c>
-      <c r="I3" s="40">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>6950</v>
-      </c>
-      <c r="K3" s="40">
-        <v>0</v>
-      </c>
-      <c r="L3" s="40">
-        <v>10</v>
-      </c>
-      <c r="M3" s="40">
-        <v>160</v>
-      </c>
-      <c r="N3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="40">
-        <v>0</v>
-      </c>
-      <c r="P3" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>20240801</v>
-      </c>
-      <c r="R3" s="40">
-        <v>20240814</v>
-      </c>
-    </row>
+      <c r="S36" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="V36" s="114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="115" customFormat="1" ht="18"/>
+    <row r="38" spans="1:22" s="115" customFormat="1" ht="18"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
